--- a/data/pca/factorExposure/factorExposure_2017-10-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02395331470670627</v>
+        <v>0.0145993096585737</v>
       </c>
       <c r="C2">
-        <v>-0.004192683705901975</v>
+        <v>0.03894166017055067</v>
       </c>
       <c r="D2">
-        <v>-0.01424455710974638</v>
+        <v>0.02856880068372345</v>
       </c>
       <c r="E2">
-        <v>-0.0126992231285249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03044464079786262</v>
+      </c>
+      <c r="F2">
+        <v>0.02449956951502543</v>
+      </c>
+      <c r="G2">
+        <v>0.01750327777885057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01229304649063852</v>
+        <v>0.05310800830106077</v>
       </c>
       <c r="C3">
-        <v>-0.04464154789126989</v>
+        <v>0.07746327021310738</v>
       </c>
       <c r="D3">
-        <v>-0.01923404857680136</v>
+        <v>0.01506988858462283</v>
       </c>
       <c r="E3">
-        <v>-0.01167462924894499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.0953354200307015</v>
+      </c>
+      <c r="F3">
+        <v>0.05434827589453235</v>
+      </c>
+      <c r="G3">
+        <v>0.07229607289373625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02212245323710844</v>
+        <v>0.0553721082762616</v>
       </c>
       <c r="C4">
-        <v>-0.01596742977722163</v>
+        <v>0.06344045177874813</v>
       </c>
       <c r="D4">
-        <v>-0.06446669300112104</v>
+        <v>0.02277505568243318</v>
       </c>
       <c r="E4">
-        <v>0.009559159242340397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01080195291272979</v>
+      </c>
+      <c r="F4">
+        <v>0.008504321785654469</v>
+      </c>
+      <c r="G4">
+        <v>0.04463757283843783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01487620089745181</v>
+        <v>0.0314320750959674</v>
       </c>
       <c r="C6">
-        <v>-0.0254417957361638</v>
+        <v>0.0532255166279009</v>
       </c>
       <c r="D6">
-        <v>-0.08290094935858777</v>
+        <v>0.01609119088471817</v>
       </c>
       <c r="E6">
-        <v>-0.004018476376423883</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.007189127334869361</v>
+      </c>
+      <c r="F6">
+        <v>0.01289050269594319</v>
+      </c>
+      <c r="G6">
+        <v>0.02512724432867673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01036683699164609</v>
+        <v>0.01947208138632289</v>
       </c>
       <c r="C7">
-        <v>-0.006718596962971549</v>
+        <v>0.03635147829300616</v>
       </c>
       <c r="D7">
-        <v>-0.04050292613974463</v>
+        <v>0.01261274928123609</v>
       </c>
       <c r="E7">
-        <v>0.06726035538335591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01383401705395624</v>
+      </c>
+      <c r="F7">
+        <v>0.008069944581787</v>
+      </c>
+      <c r="G7">
+        <v>0.07709090759230003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001075742275076015</v>
+        <v>-0.0009282843661188028</v>
       </c>
       <c r="C8">
-        <v>0.007221569229679605</v>
+        <v>0.01488126505606801</v>
       </c>
       <c r="D8">
-        <v>-0.01902781796629447</v>
+        <v>0.003737647534992423</v>
       </c>
       <c r="E8">
-        <v>0.003235679962553796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01703625294055551</v>
+      </c>
+      <c r="F8">
+        <v>0.01307512499146037</v>
+      </c>
+      <c r="G8">
+        <v>0.02517732401859861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01452755627394121</v>
+        <v>0.0284081391474718</v>
       </c>
       <c r="C9">
-        <v>-0.0157615853171684</v>
+        <v>0.04287695153194029</v>
       </c>
       <c r="D9">
-        <v>-0.04616031825524902</v>
+        <v>0.01581726062033239</v>
       </c>
       <c r="E9">
-        <v>0.0002406564689926138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01236337125133077</v>
+      </c>
+      <c r="F9">
+        <v>0.01649005890428961</v>
+      </c>
+      <c r="G9">
+        <v>0.03598073317025512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.008582003735492767</v>
+        <v>0.09176856131390999</v>
       </c>
       <c r="C10">
-        <v>-0.1406678905419118</v>
+        <v>-0.183957707365129</v>
       </c>
       <c r="D10">
-        <v>0.135249276802813</v>
+        <v>-0.0185822005867646</v>
       </c>
       <c r="E10">
-        <v>0.02755479748832368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0161333979363833</v>
+      </c>
+      <c r="F10">
+        <v>-0.01133524182534128</v>
+      </c>
+      <c r="G10">
+        <v>0.04106350114597192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001333887351251186</v>
+        <v>0.03449513053822375</v>
       </c>
       <c r="C11">
-        <v>-0.006924058843789086</v>
+        <v>0.05441843634419807</v>
       </c>
       <c r="D11">
-        <v>-0.04465677854250353</v>
+        <v>0.001829651420215377</v>
       </c>
       <c r="E11">
-        <v>-0.01411739958145486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001630348769475072</v>
+      </c>
+      <c r="F11">
+        <v>0.02227073938125849</v>
+      </c>
+      <c r="G11">
+        <v>0.01820552284291893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005352312217261815</v>
+        <v>0.03194698781237795</v>
       </c>
       <c r="C12">
-        <v>-0.01605607848304398</v>
+        <v>0.04607201519070821</v>
       </c>
       <c r="D12">
-        <v>-0.04693321218361866</v>
+        <v>0.005760893951418199</v>
       </c>
       <c r="E12">
-        <v>-0.005629709943853865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.006826227191047489</v>
+      </c>
+      <c r="F12">
+        <v>0.005758931802461038</v>
+      </c>
+      <c r="G12">
+        <v>0.02273455744520881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02132979212681322</v>
+        <v>0.01207270903458927</v>
       </c>
       <c r="C13">
-        <v>-0.01482882750147799</v>
+        <v>0.03194545025907336</v>
       </c>
       <c r="D13">
-        <v>-0.01102577064535389</v>
+        <v>0.02499367085151734</v>
       </c>
       <c r="E13">
-        <v>-0.00849550521031241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02513180832648108</v>
+      </c>
+      <c r="F13">
+        <v>0.01590724206540227</v>
+      </c>
+      <c r="G13">
+        <v>0.03174723605461322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006936019789133403</v>
+        <v>0.008494071664310742</v>
       </c>
       <c r="C14">
-        <v>-0.01573862956101217</v>
+        <v>0.02672557796924851</v>
       </c>
       <c r="D14">
-        <v>-0.01588561323601459</v>
+        <v>0.00844908707871108</v>
       </c>
       <c r="E14">
-        <v>0.009989611324500621</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006636973617184816</v>
+      </c>
+      <c r="F14">
+        <v>-0.0005216497990671474</v>
+      </c>
+      <c r="G14">
+        <v>0.0381839543474404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0005719370643027489</v>
+        <v>0.03133965071829192</v>
       </c>
       <c r="C16">
-        <v>-0.01411853938673632</v>
+        <v>0.0450157300923483</v>
       </c>
       <c r="D16">
-        <v>-0.05108390395872075</v>
+        <v>0.001382782567406205</v>
       </c>
       <c r="E16">
-        <v>-0.008831343511316904</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.002827354025926631</v>
+      </c>
+      <c r="F16">
+        <v>0.007188529116534162</v>
+      </c>
+      <c r="G16">
+        <v>0.02228123762304731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01246469264789456</v>
+        <v>0.03055559726757162</v>
       </c>
       <c r="C19">
-        <v>-0.0201768485860565</v>
+        <v>0.05273407974222819</v>
       </c>
       <c r="D19">
-        <v>-0.02828406230397064</v>
+        <v>0.0156191430585718</v>
       </c>
       <c r="E19">
-        <v>0.00121613231557652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04932909139281967</v>
+      </c>
+      <c r="F19">
+        <v>0.0273775352431999</v>
+      </c>
+      <c r="G19">
+        <v>0.04283098789597155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01040752053427407</v>
+        <v>0.01233070099870616</v>
       </c>
       <c r="C20">
-        <v>-0.007537874040692102</v>
+        <v>0.03512640760257695</v>
       </c>
       <c r="D20">
-        <v>-0.01398937248956318</v>
+        <v>0.01312050311470957</v>
       </c>
       <c r="E20">
-        <v>-0.002605744034624414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02272147838266227</v>
+      </c>
+      <c r="F20">
+        <v>0.0003348966785664966</v>
+      </c>
+      <c r="G20">
+        <v>0.03615049340381373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0134836420105699</v>
+        <v>0.01425923490481377</v>
       </c>
       <c r="C21">
-        <v>-0.03469976220161267</v>
+        <v>0.03423643784375031</v>
       </c>
       <c r="D21">
-        <v>-0.01506363186368436</v>
+        <v>0.0163040406492278</v>
       </c>
       <c r="E21">
-        <v>0.01908762530207049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03218477452288931</v>
+      </c>
+      <c r="F21">
+        <v>0.01189611389660116</v>
+      </c>
+      <c r="G21">
+        <v>0.05847015680420427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004616363548523545</v>
+        <v>0.02592128339132099</v>
       </c>
       <c r="C24">
-        <v>-0.008611917586716681</v>
+        <v>0.04745156933989175</v>
       </c>
       <c r="D24">
-        <v>-0.04506302778193802</v>
+        <v>0.00655668463814693</v>
       </c>
       <c r="E24">
-        <v>-0.009215388484344939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.002090965116240789</v>
+      </c>
+      <c r="F24">
+        <v>0.01863193552108729</v>
+      </c>
+      <c r="G24">
+        <v>0.021428811031567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01086545228513126</v>
+        <v>0.04308126826970293</v>
       </c>
       <c r="C25">
-        <v>-0.02536476315202725</v>
+        <v>0.05466950199855194</v>
       </c>
       <c r="D25">
-        <v>-0.04365241161078176</v>
+        <v>0.01046621518477328</v>
       </c>
       <c r="E25">
-        <v>-0.007849546127712095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.00960509974974786</v>
+      </c>
+      <c r="F25">
+        <v>0.01369940300099821</v>
+      </c>
+      <c r="G25">
+        <v>0.02718400058745716</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02281689848534779</v>
+        <v>0.009064400332772025</v>
       </c>
       <c r="C26">
-        <v>-0.008435029449779906</v>
+        <v>0.009882843054523943</v>
       </c>
       <c r="D26">
-        <v>0.003587780589059861</v>
+        <v>0.02372285192865063</v>
       </c>
       <c r="E26">
-        <v>0.00771220296761276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.00729449674413812</v>
+      </c>
+      <c r="F26">
+        <v>0.002516652525601273</v>
+      </c>
+      <c r="G26">
+        <v>0.02799266102923277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02550552622019212</v>
+        <v>0.1184855297335761</v>
       </c>
       <c r="C28">
-        <v>-0.2084844294245726</v>
+        <v>-0.226800003943826</v>
       </c>
       <c r="D28">
-        <v>0.1925800372043451</v>
+        <v>-0.009613238512935144</v>
       </c>
       <c r="E28">
-        <v>0.04331775715395857</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007996192450539816</v>
+      </c>
+      <c r="F28">
+        <v>-0.003809648149585536</v>
+      </c>
+      <c r="G28">
+        <v>0.05882207772208051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007123262045612337</v>
+        <v>0.01340298422598567</v>
       </c>
       <c r="C29">
-        <v>-0.01923231427229116</v>
+        <v>0.02078020494159905</v>
       </c>
       <c r="D29">
-        <v>-0.01362453959726068</v>
+        <v>0.007144456658515702</v>
       </c>
       <c r="E29">
-        <v>0.00568922095383354</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007968031905792795</v>
+      </c>
+      <c r="F29">
+        <v>-0.01090135273245346</v>
+      </c>
+      <c r="G29">
+        <v>0.02840995095030092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02385862512206838</v>
+        <v>0.04480201239704722</v>
       </c>
       <c r="C30">
-        <v>-0.01345367615454397</v>
+        <v>0.07057068528588814</v>
       </c>
       <c r="D30">
-        <v>-0.06231356136396052</v>
+        <v>0.02719159894493581</v>
       </c>
       <c r="E30">
-        <v>-0.06524140862913894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03770205861767683</v>
+      </c>
+      <c r="F30">
+        <v>0.03983254711429415</v>
+      </c>
+      <c r="G30">
+        <v>0.004265448598916564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006503980436561464</v>
+        <v>0.04513916276716345</v>
       </c>
       <c r="C31">
-        <v>-0.04819786186462569</v>
+        <v>0.03159905285150251</v>
       </c>
       <c r="D31">
-        <v>-0.03819854760237906</v>
+        <v>0.003102491920160199</v>
       </c>
       <c r="E31">
-        <v>0.001417579208839684</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01126634677378724</v>
+      </c>
+      <c r="F31">
+        <v>-0.03615919097081122</v>
+      </c>
+      <c r="G31">
+        <v>0.02635474326703316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007163838095296445</v>
+        <v>0.002837467821030487</v>
       </c>
       <c r="C32">
-        <v>-0.01212288918935527</v>
+        <v>0.03554812333404957</v>
       </c>
       <c r="D32">
-        <v>-0.00976771538583608</v>
+        <v>-0.004175139607259489</v>
       </c>
       <c r="E32">
-        <v>0.02367862620864772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01268467898224608</v>
+      </c>
+      <c r="F32">
+        <v>0.0680731082782621</v>
+      </c>
+      <c r="G32">
+        <v>0.04866880046775549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01200180265135994</v>
+        <v>0.02772219145496348</v>
       </c>
       <c r="C33">
-        <v>-0.02492268975704581</v>
+        <v>0.05157722298117137</v>
       </c>
       <c r="D33">
-        <v>-0.02215522248113431</v>
+        <v>0.01432927354448005</v>
       </c>
       <c r="E33">
-        <v>-0.02681867027651893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02256461314121935</v>
+      </c>
+      <c r="F33">
+        <v>0.02500583035485689</v>
+      </c>
+      <c r="G33">
+        <v>0.02863829102856825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005175476157162863</v>
+        <v>0.04418920223356786</v>
       </c>
       <c r="C34">
-        <v>-0.02115043710015057</v>
+        <v>0.05597483775039196</v>
       </c>
       <c r="D34">
-        <v>-0.04859860243169886</v>
+        <v>-0.00545267197163777</v>
       </c>
       <c r="E34">
-        <v>0.0003614255933636572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.0104420049409945</v>
+      </c>
+      <c r="F34">
+        <v>0.02323427756962787</v>
+      </c>
+      <c r="G34">
+        <v>0.03295680709162352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01153023685889022</v>
+        <v>0.01115201093476602</v>
       </c>
       <c r="C36">
-        <v>-0.01793992766821677</v>
+        <v>0.007526918962619649</v>
       </c>
       <c r="D36">
-        <v>-0.0007839683252663487</v>
+        <v>0.01132878623724269</v>
       </c>
       <c r="E36">
-        <v>0.002738073800868598</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002001535274122414</v>
+      </c>
+      <c r="F36">
+        <v>-0.002007480157371904</v>
+      </c>
+      <c r="G36">
+        <v>0.02259425463727052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006524681729501602</v>
+        <v>0.03321621813989737</v>
       </c>
       <c r="C38">
-        <v>-0.02754153179029998</v>
+        <v>0.02644953488736389</v>
       </c>
       <c r="D38">
-        <v>-0.0249291342461965</v>
+        <v>-0.007925828990153785</v>
       </c>
       <c r="E38">
-        <v>-0.0007850167260332255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002940224400267466</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009724381268865252</v>
+      </c>
+      <c r="G38">
+        <v>0.02937146042051182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005912752228127059</v>
+        <v>0.03223330713221174</v>
       </c>
       <c r="C39">
-        <v>0.01208058048470974</v>
+        <v>0.08261190511340798</v>
       </c>
       <c r="D39">
-        <v>-0.0961026727872497</v>
+        <v>0.01204061793617718</v>
       </c>
       <c r="E39">
-        <v>-0.01898172298516689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02218609764338197</v>
+      </c>
+      <c r="F39">
+        <v>0.03628996597589439</v>
+      </c>
+      <c r="G39">
+        <v>0.02405973994766153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01064304730810652</v>
+        <v>0.02105244121662756</v>
       </c>
       <c r="C40">
-        <v>-0.01757302639927613</v>
+        <v>0.03084364425442489</v>
       </c>
       <c r="D40">
-        <v>-0.03927959411304604</v>
+        <v>0.01302444430419162</v>
       </c>
       <c r="E40">
-        <v>-0.01269361321766429</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02080376593872041</v>
+      </c>
+      <c r="F40">
+        <v>0.01785673121423271</v>
+      </c>
+      <c r="G40">
+        <v>0.02389466659036298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004864158632279072</v>
+        <v>0.01207678132216082</v>
       </c>
       <c r="C41">
-        <v>-0.01921992939122266</v>
+        <v>-0.0007882702353578993</v>
       </c>
       <c r="D41">
-        <v>0.008191269121107009</v>
+        <v>0.003540187131771132</v>
       </c>
       <c r="E41">
-        <v>0.003913075621285431</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003601885509461441</v>
+      </c>
+      <c r="F41">
+        <v>0.001023445768724021</v>
+      </c>
+      <c r="G41">
+        <v>0.0140470092598878</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09194769204003127</v>
+        <v>0.02134972946744138</v>
       </c>
       <c r="C42">
-        <v>-0.02536539159298496</v>
+        <v>0.04954853763462345</v>
       </c>
       <c r="D42">
-        <v>-0.2104849434152037</v>
+        <v>0.09795671189749797</v>
       </c>
       <c r="E42">
-        <v>-0.2831631558583101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04314181535663556</v>
+      </c>
+      <c r="F42">
+        <v>-0.06613780396331231</v>
+      </c>
+      <c r="G42">
+        <v>-0.1792319391019932</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005745145731789381</v>
+        <v>0.02820336415188325</v>
       </c>
       <c r="C43">
-        <v>-0.02149871442746636</v>
+        <v>0.008509552664067879</v>
       </c>
       <c r="D43">
-        <v>0.01345467296446053</v>
+        <v>0.003757577825196712</v>
       </c>
       <c r="E43">
-        <v>0.000960008616403738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003446652464764601</v>
+      </c>
+      <c r="F43">
+        <v>-0.0005672865013878549</v>
+      </c>
+      <c r="G43">
+        <v>0.02000942609818183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003124567619528831</v>
+        <v>0.01642302912660047</v>
       </c>
       <c r="C44">
-        <v>0.0005892387574291431</v>
+        <v>0.04789181875596844</v>
       </c>
       <c r="D44">
-        <v>-0.02796251332575065</v>
+        <v>0.006545183105619702</v>
       </c>
       <c r="E44">
-        <v>0.001751896449198877</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01619833751919524</v>
+      </c>
+      <c r="F44">
+        <v>0.0193723629985431</v>
+      </c>
+      <c r="G44">
+        <v>0.03577210991586795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01043707361297063</v>
+        <v>0.005352087533052914</v>
       </c>
       <c r="C46">
-        <v>-0.01919058619306455</v>
+        <v>0.01675465997699527</v>
       </c>
       <c r="D46">
-        <v>-0.01630068968498508</v>
+        <v>0.01162057330535417</v>
       </c>
       <c r="E46">
-        <v>-0.004131311129286142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0008674910548838653</v>
+      </c>
+      <c r="F46">
+        <v>-0.01450524342655115</v>
+      </c>
+      <c r="G46">
+        <v>0.02603891115842877</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0001415455758776641</v>
+        <v>0.07346165791850733</v>
       </c>
       <c r="C47">
-        <v>-0.06230286689249184</v>
+        <v>0.06435024777539827</v>
       </c>
       <c r="D47">
-        <v>-0.04604560479140033</v>
+        <v>-0.005212018880374403</v>
       </c>
       <c r="E47">
-        <v>-0.008192372113062842</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01620979041244788</v>
+      </c>
+      <c r="F47">
+        <v>-0.05956665611957369</v>
+      </c>
+      <c r="G47">
+        <v>0.02590673249906436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002324541921672391</v>
+        <v>0.02170194210517086</v>
       </c>
       <c r="C48">
-        <v>-0.02754190922393094</v>
+        <v>0.009746461020260938</v>
       </c>
       <c r="D48">
-        <v>-0.009751578955564782</v>
+        <v>0.0006266099002415184</v>
       </c>
       <c r="E48">
-        <v>0.0001835370517226745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0004030818302767396</v>
+      </c>
+      <c r="F48">
+        <v>-0.01480756859266667</v>
+      </c>
+      <c r="G48">
+        <v>0.02832286535491942</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001549845965614923</v>
+        <v>0.08045462714339705</v>
       </c>
       <c r="C50">
-        <v>-0.05314902359674363</v>
+        <v>0.065530004415452</v>
       </c>
       <c r="D50">
-        <v>-0.06020582700415538</v>
+        <v>-0.004236762797377483</v>
       </c>
       <c r="E50">
-        <v>0.01582191456769624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01601494052042802</v>
+      </c>
+      <c r="F50">
+        <v>-0.05620616577663085</v>
+      </c>
+      <c r="G50">
+        <v>0.04604804087244636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006952168154444529</v>
+        <v>0.01151839582984999</v>
       </c>
       <c r="C51">
-        <v>-0.01794791597617739</v>
+        <v>0.02902168452840809</v>
       </c>
       <c r="D51">
-        <v>0.01337696620519357</v>
+        <v>0.009069920030044427</v>
       </c>
       <c r="E51">
-        <v>0.01078088839330597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009398935097686618</v>
+      </c>
+      <c r="F51">
+        <v>0.03084533904485976</v>
+      </c>
+      <c r="G51">
+        <v>0.04799187758560214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.002882125040164686</v>
+        <v>0.09467852928574037</v>
       </c>
       <c r="C53">
-        <v>-0.08810830452626905</v>
+        <v>0.08018700877098861</v>
       </c>
       <c r="D53">
-        <v>-0.09868182235071535</v>
+        <v>-0.005802335525940915</v>
       </c>
       <c r="E53">
-        <v>-0.005846022592270239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04141360394569535</v>
+      </c>
+      <c r="F53">
+        <v>-0.06420383096318708</v>
+      </c>
+      <c r="G53">
+        <v>0.02521070410419367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001545165301119503</v>
+        <v>0.02922926868174643</v>
       </c>
       <c r="C54">
-        <v>-0.03532672788590788</v>
+        <v>0.007087135720980197</v>
       </c>
       <c r="D54">
-        <v>0.01233718744421127</v>
+        <v>-0.003386437630766331</v>
       </c>
       <c r="E54">
-        <v>0.01388900944912642</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.00354192714611002</v>
+      </c>
+      <c r="F54">
+        <v>-0.0003939291811279756</v>
+      </c>
+      <c r="G54">
+        <v>0.03301728476819107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0007351343283329129</v>
+        <v>0.07270564685343694</v>
       </c>
       <c r="C55">
-        <v>-0.06329240333814214</v>
+        <v>0.07328179279742414</v>
       </c>
       <c r="D55">
-        <v>-0.08564983585064527</v>
+        <v>-0.00491672708508278</v>
       </c>
       <c r="E55">
-        <v>-0.01788893826413636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03231526749125534</v>
+      </c>
+      <c r="F55">
+        <v>-0.05857447262311892</v>
+      </c>
+      <c r="G55">
+        <v>0.01130316523486256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0004130863626045993</v>
+        <v>0.1422009052702696</v>
       </c>
       <c r="C56">
-        <v>-0.1093977078095022</v>
+        <v>0.1040109959830422</v>
       </c>
       <c r="D56">
-        <v>-0.1287039439730054</v>
+        <v>-0.01404234683899464</v>
       </c>
       <c r="E56">
-        <v>-0.02096747168120022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04728962234019178</v>
+      </c>
+      <c r="F56">
+        <v>-0.09802090100832679</v>
+      </c>
+      <c r="G56">
+        <v>0.002027229948523542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02285249381513244</v>
+        <v>0.01183657763941696</v>
       </c>
       <c r="C57">
-        <v>-0.01745426144103784</v>
+        <v>0.01150388913904451</v>
       </c>
       <c r="D57">
-        <v>-0.04084659708516032</v>
+        <v>0.02371418766271632</v>
       </c>
       <c r="E57">
-        <v>-0.01547916894684881</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02922885395868252</v>
+      </c>
+      <c r="F57">
+        <v>0.01435377477642921</v>
+      </c>
+      <c r="G57">
+        <v>0.02011746765591259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.008214188679178863</v>
+        <v>0.07540416557040115</v>
       </c>
       <c r="C58">
-        <v>-0.09369052147187723</v>
+        <v>0.05664536219277366</v>
       </c>
       <c r="D58">
-        <v>-0.09100934826852845</v>
+        <v>0.01897321892288598</v>
       </c>
       <c r="E58">
-        <v>-0.2226443911561284</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9357183949040907</v>
+      </c>
+      <c r="F58">
+        <v>-0.2634253891560976</v>
+      </c>
+      <c r="G58">
+        <v>0.02839925338633982</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02212024250001484</v>
+        <v>0.1535975758550867</v>
       </c>
       <c r="C59">
-        <v>-0.2203475977600765</v>
+        <v>-0.2097027967972811</v>
       </c>
       <c r="D59">
-        <v>0.1943088143396412</v>
+        <v>-0.01599712642694714</v>
       </c>
       <c r="E59">
-        <v>0.0201091467217049</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01424210332783392</v>
+      </c>
+      <c r="F59">
+        <v>0.01360523170633692</v>
+      </c>
+      <c r="G59">
+        <v>0.02285199780339115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02843661353308456</v>
+        <v>0.2910509463247896</v>
       </c>
       <c r="C60">
-        <v>-0.1649242557919731</v>
+        <v>0.0932758568091334</v>
       </c>
       <c r="D60">
-        <v>-0.077852936867808</v>
+        <v>0.008893424352367625</v>
       </c>
       <c r="E60">
-        <v>-0.05084596354663296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02244655381739079</v>
+      </c>
+      <c r="F60">
+        <v>0.3729422237426859</v>
+      </c>
+      <c r="G60">
+        <v>-0.09527321996132064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002846890431291718</v>
+        <v>0.03261044167209325</v>
       </c>
       <c r="C61">
-        <v>-0.01193616364088423</v>
+        <v>0.06426124101224451</v>
       </c>
       <c r="D61">
-        <v>-0.06697390212159662</v>
+        <v>0.005263959578809678</v>
       </c>
       <c r="E61">
-        <v>-0.01225838291375515</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01077632899380842</v>
+      </c>
+      <c r="F61">
+        <v>0.02036510601273213</v>
+      </c>
+      <c r="G61">
+        <v>0.02331381521352346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007073735349459571</v>
+        <v>0.01389920978790183</v>
       </c>
       <c r="C63">
-        <v>-0.008239265431473432</v>
+        <v>0.02698210880853703</v>
       </c>
       <c r="D63">
-        <v>-0.01130173343881516</v>
+        <v>0.007922918604566846</v>
       </c>
       <c r="E63">
-        <v>0.005622567529117587</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.006837676453065239</v>
+      </c>
+      <c r="F63">
+        <v>-0.008167228578121908</v>
+      </c>
+      <c r="G63">
+        <v>0.03267508810361751</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006453852146791573</v>
+        <v>0.04909247017540636</v>
       </c>
       <c r="C64">
-        <v>-0.03618687706391203</v>
+        <v>0.0377549557825575</v>
       </c>
       <c r="D64">
-        <v>-0.06408043294417715</v>
+        <v>0.004842833157403598</v>
       </c>
       <c r="E64">
-        <v>-0.01439850255353942</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006184468883896065</v>
+      </c>
+      <c r="F64">
+        <v>0.007065454624601768</v>
+      </c>
+      <c r="G64">
+        <v>0.02062646486993288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01724672065170855</v>
+        <v>0.08192575172015208</v>
       </c>
       <c r="C65">
-        <v>-0.0317740925923479</v>
+        <v>0.06445014622049186</v>
       </c>
       <c r="D65">
-        <v>-0.09339318460844719</v>
+        <v>0.01492742432119102</v>
       </c>
       <c r="E65">
-        <v>-0.007507551056978223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.006941813843707231</v>
+      </c>
+      <c r="F65">
+        <v>0.03449743888923611</v>
+      </c>
+      <c r="G65">
+        <v>0.009626795921753055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005390507841508913</v>
+        <v>0.05268122177712747</v>
       </c>
       <c r="C66">
-        <v>0.001081721476447638</v>
+        <v>0.1162768528301655</v>
       </c>
       <c r="D66">
-        <v>-0.1170530923617663</v>
+        <v>0.01149971629148103</v>
       </c>
       <c r="E66">
-        <v>-0.03756966533467353</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02292540482800421</v>
+      </c>
+      <c r="F66">
+        <v>0.04405529453938283</v>
+      </c>
+      <c r="G66">
+        <v>0.01389102393060887</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001735248838284274</v>
+        <v>0.05646738685601952</v>
       </c>
       <c r="C67">
-        <v>-0.04544772564961267</v>
+        <v>0.03088117137139038</v>
       </c>
       <c r="D67">
-        <v>-0.02652407883582618</v>
+        <v>-0.006374072064944829</v>
       </c>
       <c r="E67">
-        <v>-0.003059809972734671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.004628924908098683</v>
+      </c>
+      <c r="F67">
+        <v>-0.003352605093002121</v>
+      </c>
+      <c r="G67">
+        <v>0.02744433649545348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03918538842040176</v>
+        <v>0.1374994910557394</v>
       </c>
       <c r="C68">
-        <v>-0.185844891140293</v>
+        <v>-0.2710352690183693</v>
       </c>
       <c r="D68">
-        <v>0.1861492524110901</v>
+        <v>0.00167704409602908</v>
       </c>
       <c r="E68">
-        <v>0.01546545380980032</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01327382526156438</v>
+      </c>
+      <c r="F68">
+        <v>-0.01993195365976329</v>
+      </c>
+      <c r="G68">
+        <v>0.02186649065515146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003619469212510436</v>
+        <v>0.07776631165839752</v>
       </c>
       <c r="C69">
-        <v>-0.04992930868740805</v>
+        <v>0.06558165830826675</v>
       </c>
       <c r="D69">
-        <v>-0.05193311701563769</v>
+        <v>-0.009255114940812513</v>
       </c>
       <c r="E69">
-        <v>-0.004097900712750346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03460714079364411</v>
+      </c>
+      <c r="F69">
+        <v>-0.04160696293887697</v>
+      </c>
+      <c r="G69">
+        <v>0.02541283959563475</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02713843372443896</v>
+        <v>0.1324528069800799</v>
       </c>
       <c r="C71">
-        <v>-0.1666964540614572</v>
+        <v>-0.227833925066907</v>
       </c>
       <c r="D71">
-        <v>0.1630273779262414</v>
+        <v>-0.007217369827133563</v>
       </c>
       <c r="E71">
-        <v>0.02419611890530649</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02345868350860666</v>
+      </c>
+      <c r="F71">
+        <v>-0.01547802974862867</v>
+      </c>
+      <c r="G71">
+        <v>0.03459243036946977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.003137585104287125</v>
+        <v>0.08465132217890819</v>
       </c>
       <c r="C72">
-        <v>-0.05680648950456114</v>
+        <v>0.07639927112515041</v>
       </c>
       <c r="D72">
-        <v>-0.1369868778859294</v>
+        <v>-0.009006794661592559</v>
       </c>
       <c r="E72">
-        <v>-0.04026772448532841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01441113863029039</v>
+      </c>
+      <c r="F72">
+        <v>0.03395596371758269</v>
+      </c>
+      <c r="G72">
+        <v>0.003344982032296438</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04162559115430339</v>
+        <v>0.4012685186428462</v>
       </c>
       <c r="C73">
-        <v>-0.1997423080846323</v>
+        <v>0.1103255834734267</v>
       </c>
       <c r="D73">
-        <v>-0.1380243601341093</v>
+        <v>0.013949070235706</v>
       </c>
       <c r="E73">
-        <v>-0.119727284650565</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.08311959344281682</v>
+      </c>
+      <c r="F73">
+        <v>0.5396367249481675</v>
+      </c>
+      <c r="G73">
+        <v>-0.1543607494569721</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.00153691866681746</v>
+        <v>0.1149112649325826</v>
       </c>
       <c r="C74">
-        <v>-0.1016960356127972</v>
+        <v>0.1185750129167698</v>
       </c>
       <c r="D74">
-        <v>-0.125347428033865</v>
+        <v>-0.01047076090002221</v>
       </c>
       <c r="E74">
-        <v>-0.02796953915272489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04229627626274577</v>
+      </c>
+      <c r="F74">
+        <v>-0.06917331037088914</v>
+      </c>
+      <c r="G74">
+        <v>0.0242480645730484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0009086337850643927</v>
+        <v>0.2577892179167954</v>
       </c>
       <c r="C75">
-        <v>-0.233127973227456</v>
+        <v>0.1510474561634864</v>
       </c>
       <c r="D75">
-        <v>-0.2122945323721291</v>
+        <v>-0.03171520487718571</v>
       </c>
       <c r="E75">
-        <v>-0.05644919930811537</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07564726312317116</v>
+      </c>
+      <c r="F75">
+        <v>-0.2171728305991394</v>
+      </c>
+      <c r="G75">
+        <v>-0.03076270859325494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006157978220694018</v>
+        <v>0.1352590050218858</v>
       </c>
       <c r="C76">
-        <v>-0.1775210747334285</v>
+        <v>0.1231553008483723</v>
       </c>
       <c r="D76">
-        <v>-0.2026157617826444</v>
+        <v>-0.02193262931875697</v>
       </c>
       <c r="E76">
-        <v>-0.02152579675655799</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07200070997839236</v>
+      </c>
+      <c r="F76">
+        <v>-0.1304261588819144</v>
+      </c>
+      <c r="G76">
+        <v>0.01565711578132552</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01195059226322816</v>
+        <v>0.06203002465439723</v>
       </c>
       <c r="C77">
-        <v>-0.01758376016441955</v>
+        <v>0.06320318545222368</v>
       </c>
       <c r="D77">
-        <v>-0.06217169286844885</v>
+        <v>0.01253950408624657</v>
       </c>
       <c r="E77">
-        <v>-0.01412377067457595</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04982880701212718</v>
+      </c>
+      <c r="F77">
+        <v>0.01283404468219812</v>
+      </c>
+      <c r="G77">
+        <v>0.05142223035156219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004182605492744144</v>
+        <v>0.03970988379447669</v>
       </c>
       <c r="C78">
-        <v>-0.01817962783013077</v>
+        <v>0.0512424294672857</v>
       </c>
       <c r="D78">
-        <v>-0.06266205659598023</v>
+        <v>0.005556428941800994</v>
       </c>
       <c r="E78">
-        <v>-0.009388788322049502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02160074075744042</v>
+      </c>
+      <c r="F78">
+        <v>0.03948474681937448</v>
+      </c>
+      <c r="G78">
+        <v>0.03411248472194569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01393086146668161</v>
+        <v>0.0599387305585907</v>
       </c>
       <c r="C80">
-        <v>-0.1471858047087355</v>
+        <v>0.06910492750326756</v>
       </c>
       <c r="D80">
-        <v>-0.2703635527022727</v>
+        <v>0.01239657666928181</v>
       </c>
       <c r="E80">
-        <v>0.8884143240267357</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04467083296606122</v>
+      </c>
+      <c r="F80">
+        <v>0.07660968237151179</v>
+      </c>
+      <c r="G80">
+        <v>0.9149212498434391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0003051052158202927</v>
+        <v>0.1438686510671936</v>
       </c>
       <c r="C81">
-        <v>-0.1478650707719711</v>
+        <v>0.09359595386735731</v>
       </c>
       <c r="D81">
-        <v>-0.140180169193063</v>
+        <v>-0.01623574888242103</v>
       </c>
       <c r="E81">
-        <v>-0.02674538363249007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04645171729778336</v>
+      </c>
+      <c r="F81">
+        <v>-0.1360548962857735</v>
+      </c>
+      <c r="G81">
+        <v>0.01778539225873095</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05350114046288378</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03733357116898319</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.00297358976057708</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01810961161614028</v>
+      </c>
+      <c r="F82">
+        <v>-0.006434194862451482</v>
+      </c>
+      <c r="G82">
+        <v>-0.006636196987243892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006326967805335726</v>
+        <v>0.02810017468570506</v>
       </c>
       <c r="C83">
-        <v>-0.02999783385966152</v>
+        <v>0.02139479474773021</v>
       </c>
       <c r="D83">
-        <v>-0.0261236975670888</v>
+        <v>0.005280405086156047</v>
       </c>
       <c r="E83">
-        <v>-0.01125207663326755</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02572317992179141</v>
+      </c>
+      <c r="F83">
+        <v>0.01821420877265405</v>
+      </c>
+      <c r="G83">
+        <v>0.02217825720467321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.007732487336980635</v>
+        <v>0.2339868360463714</v>
       </c>
       <c r="C85">
-        <v>-0.1861021884310353</v>
+        <v>0.1510953039590384</v>
       </c>
       <c r="D85">
-        <v>-0.2262208410337331</v>
+        <v>-0.02034750400010547</v>
       </c>
       <c r="E85">
-        <v>-0.06214003428696025</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.126608381060338</v>
+      </c>
+      <c r="F85">
+        <v>-0.191891078941391</v>
+      </c>
+      <c r="G85">
+        <v>-0.05778257015247551</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005437759995626324</v>
+        <v>0.01272514505943943</v>
       </c>
       <c r="C86">
-        <v>-0.01202454120636458</v>
+        <v>0.02161325409717492</v>
       </c>
       <c r="D86">
-        <v>-0.008373238356883797</v>
+        <v>0.009626042418150767</v>
       </c>
       <c r="E86">
-        <v>-0.01991503636227243</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03742601095323491</v>
+      </c>
+      <c r="F86">
+        <v>0.01857245206305952</v>
+      </c>
+      <c r="G86">
+        <v>0.04949915352646881</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007153647508847183</v>
+        <v>0.01591659024226069</v>
       </c>
       <c r="C87">
-        <v>-0.01423202952181234</v>
+        <v>0.02827690693538695</v>
       </c>
       <c r="D87">
-        <v>-0.03997252681963159</v>
+        <v>0.01187119023757026</v>
       </c>
       <c r="E87">
-        <v>-0.01226094647372982</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07888668272128589</v>
+      </c>
+      <c r="F87">
+        <v>0.04076359832463711</v>
+      </c>
+      <c r="G87">
+        <v>0.04396659329555606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02561993838340755</v>
+        <v>0.08912977978938844</v>
       </c>
       <c r="C88">
-        <v>-0.04457966707535551</v>
+        <v>0.06175939484457723</v>
       </c>
       <c r="D88">
-        <v>-0.02437811512475055</v>
+        <v>0.02163635986675346</v>
       </c>
       <c r="E88">
-        <v>-0.004899730059324683</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01561908722451329</v>
+      </c>
+      <c r="F88">
+        <v>-0.01795901714951921</v>
+      </c>
+      <c r="G88">
+        <v>0.02386431331457262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05218348570666058</v>
+        <v>0.2243434154015802</v>
       </c>
       <c r="C89">
-        <v>-0.3236897145484702</v>
+        <v>-0.3668012959003137</v>
       </c>
       <c r="D89">
-        <v>0.2915986364519522</v>
+        <v>-0.007998443043776594</v>
       </c>
       <c r="E89">
-        <v>0.01988567449169676</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01793473706506595</v>
+      </c>
+      <c r="F89">
+        <v>-0.0311892797719734</v>
+      </c>
+      <c r="G89">
+        <v>0.03631696136833488</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.0392555772389642</v>
+        <v>0.1924890295465407</v>
       </c>
       <c r="C90">
-        <v>-0.2384565775908297</v>
+        <v>-0.3344997675695243</v>
       </c>
       <c r="D90">
-        <v>0.2678216524589169</v>
+        <v>-0.01180340393105565</v>
       </c>
       <c r="E90">
-        <v>0.01508194308459057</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006993376195672964</v>
+      </c>
+      <c r="F90">
+        <v>-0.04347115455416945</v>
+      </c>
+      <c r="G90">
+        <v>-0.002226491628264333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.002858653388008545</v>
+        <v>0.2050585686475675</v>
       </c>
       <c r="C91">
-        <v>-0.1975105079721887</v>
+        <v>0.1381490614396275</v>
       </c>
       <c r="D91">
-        <v>-0.2111641898289238</v>
+        <v>-0.02556073041048814</v>
       </c>
       <c r="E91">
-        <v>-0.04322222577171288</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09151766282240646</v>
+      </c>
+      <c r="F91">
+        <v>-0.1853880873610423</v>
+      </c>
+      <c r="G91">
+        <v>0.005461320253741195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.005052982545463364</v>
+        <v>0.2084723035089767</v>
       </c>
       <c r="C92">
-        <v>-0.3471678618191257</v>
+        <v>-0.2637489284827058</v>
       </c>
       <c r="D92">
-        <v>0.1573289361491149</v>
+        <v>-0.05292126090160605</v>
       </c>
       <c r="E92">
-        <v>-0.007029045218263179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.01092166267400904</v>
+      </c>
+      <c r="F92">
+        <v>-0.124758967703711</v>
+      </c>
+      <c r="G92">
+        <v>0.06338360439391996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03662811675224541</v>
+        <v>0.2191704388594482</v>
       </c>
       <c r="C93">
-        <v>-0.2783594411199128</v>
+        <v>-0.3313839277410262</v>
       </c>
       <c r="D93">
-        <v>0.2699132386315655</v>
+        <v>-0.01872051904303315</v>
       </c>
       <c r="E93">
-        <v>-0.007047757691318416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.002064425540974952</v>
+      </c>
+      <c r="F93">
+        <v>-0.02351305844980606</v>
+      </c>
+      <c r="G93">
+        <v>-0.001108802138743125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01876169667971206</v>
+        <v>0.28240719537081</v>
       </c>
       <c r="C94">
-        <v>-0.2478496388170809</v>
+        <v>0.1580665866240044</v>
       </c>
       <c r="D94">
-        <v>-0.1982369756448674</v>
+        <v>-0.01516098717491074</v>
       </c>
       <c r="E94">
-        <v>-0.09109676126480692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.126821569897976</v>
+      </c>
+      <c r="F94">
+        <v>-0.4076577805416445</v>
+      </c>
+      <c r="G94">
+        <v>-0.1146397239490373</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006648205725239063</v>
+        <v>0.08083475883674565</v>
       </c>
       <c r="C95">
-        <v>-0.05265624224751161</v>
+        <v>0.07936925339023138</v>
       </c>
       <c r="D95">
-        <v>-0.06679719386767562</v>
+        <v>-0.006345533190618959</v>
       </c>
       <c r="E95">
-        <v>-0.1196438393939044</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08129342244481512</v>
+      </c>
+      <c r="F95">
+        <v>0.1630589298533664</v>
+      </c>
+      <c r="G95">
+        <v>-0.04796851705703148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004097454040990698</v>
+        <v>0.2085192561879756</v>
       </c>
       <c r="C98">
-        <v>-0.1683858372358422</v>
+        <v>0.0505765374621196</v>
       </c>
       <c r="D98">
-        <v>-0.1072799332885157</v>
+        <v>-0.01605963242470729</v>
       </c>
       <c r="E98">
-        <v>-0.0775593514476124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.07725075190178196</v>
+      </c>
+      <c r="F98">
+        <v>0.2441259843263879</v>
+      </c>
+      <c r="G98">
+        <v>-0.04273274354733476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006962602490436659</v>
+        <v>0.01325107678697852</v>
       </c>
       <c r="C101">
-        <v>-0.01992703587344824</v>
+        <v>0.02087798935549883</v>
       </c>
       <c r="D101">
-        <v>-0.01411187343145808</v>
+        <v>0.00693046038597318</v>
       </c>
       <c r="E101">
-        <v>0.005766644700107069</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.008539802315678561</v>
+      </c>
+      <c r="F101">
+        <v>-0.01280039879774927</v>
+      </c>
+      <c r="G101">
+        <v>0.02850007789930131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01286730447633717</v>
+        <v>0.1222706874336756</v>
       </c>
       <c r="C102">
-        <v>-0.1152564632072464</v>
+        <v>0.08261030142476047</v>
       </c>
       <c r="D102">
-        <v>-0.1103162320862924</v>
+        <v>0.0001118173353702248</v>
       </c>
       <c r="E102">
-        <v>-0.03184498930630991</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0400415792273433</v>
+      </c>
+      <c r="F102">
+        <v>-0.05731589791256914</v>
+      </c>
+      <c r="G102">
+        <v>-0.007307448499075769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001965531790035789</v>
+        <v>0.004156432114560536</v>
       </c>
       <c r="C103">
-        <v>-0.01671111929962943</v>
+        <v>0.00548873856857034</v>
       </c>
       <c r="D103">
-        <v>-0.02743057154313934</v>
+        <v>0.0006745664042638088</v>
       </c>
       <c r="E103">
-        <v>0.01096382949309003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0002507632832684475</v>
+      </c>
+      <c r="F103">
+        <v>-0.008689830875030143</v>
+      </c>
+      <c r="G103">
+        <v>0.01847755812563583</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9859671521569026</v>
+        <v>0.03709963860327131</v>
       </c>
       <c r="C104">
-        <v>0.09503246104182717</v>
+        <v>-0.04307191803040492</v>
       </c>
       <c r="D104">
-        <v>-0.007257000291580892</v>
+        <v>0.986565680152229</v>
       </c>
       <c r="E104">
-        <v>0.0224121274354835</v>
+        <v>0.04513201162825761</v>
+      </c>
+      <c r="F104">
+        <v>-0.04161918449105268</v>
+      </c>
+      <c r="G104">
+        <v>-0.00387939734858746</v>
       </c>
     </row>
   </sheetData>
